--- a/M1-Excel and Basic Statistics/New Microsoft Excel Worksheet.xlsx
+++ b/M1-Excel and Basic Statistics/New Microsoft Excel Worksheet.xlsx
@@ -8,24 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2f7b8af3508b5419/Documents/Coding/Codebasics/DataAnalyticsBootcamp/DataAnalyst/M1-Excel and Basic Statistics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_F25DC773A252ABDACC10488CA91D5F2E5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFCB1A32-DA37-42BC-A8FD-1B8A351F1B63}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="11_F25DC773A252ABDACC10488CA91D5F2E5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3F635BB-F57A-4B6D-8C41-8574BAD3EE4B}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="April 2025" sheetId="1" r:id="rId1"/>
+    <sheet name="May 2025" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'April 2025'!$A$2:$D$12</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>Subway Sandwich</t>
   </si>
@@ -49,13 +62,52 @@
   </si>
   <si>
     <t>Gas Bill</t>
+  </si>
+  <si>
+    <t>Home Bill</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>Pizza</t>
+  </si>
+  <si>
+    <t>Tomatoes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date </t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>Expenses</t>
+  </si>
+  <si>
+    <t>Rent</t>
+  </si>
+  <si>
+    <t>Home Rent</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>Freelance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +115,61 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -81,15 +181,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -102,6 +214,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -367,90 +483,224 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="F1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="1">
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A3" s="3">
         <v>45771</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F3" s="1">
+        <v>45762</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A4" s="3">
+        <v>45772</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>50</v>
+      </c>
+      <c r="F4" s="1">
+        <v>45763</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A5" s="3">
+        <v>45773</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A6" s="3">
+        <v>45774</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4">
+        <v>100</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A7" s="3">
+        <v>45778</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A8" s="3">
+        <v>45775</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A9" s="3">
+        <v>45776</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A10" s="3">
+        <v>45771</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="D10" s="4">
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
-        <v>45771</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
-        <v>45771</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="1">
-        <v>45771</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="1">
-        <v>45771</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="1">
-        <v>45771</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="1">
-        <v>45771</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="1">
-        <v>45771</v>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A11" s="3">
+        <v>45777</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="D12">
+        <f>AVERAGE(D3:D11)</f>
+        <v>450.55555555555554</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D12">
+    <sortCondition ref="D6:D12"/>
+  </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B6CE5A-4FC0-49E3-8C9A-96895FACE437}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>